--- a/보고/보고양식(김홍준).xlsx
+++ b/보고/보고양식(김홍준).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdwn\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D33E11AD-430A-4226-AA1A-78830F0E261F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0B176A-FBA9-4325-9208-7D6D138E2BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,6 +443,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -455,15 +464,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="7" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19"/>
-      <c r="C7" s="22"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="10" t="s">
         <v>34</v>
       </c>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="8" spans="2:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="19"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="7" t="s">
         <v>38</v>
       </c>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B9" s="19"/>
-      <c r="C9" s="22"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B10" s="19"/>
-      <c r="C10" s="22"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B11" s="19"/>
-      <c r="C11" s="23"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1693,10 +1693,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -1759,8 +1759,8 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B15" s="25"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1821,8 +1821,8 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B16" s="25"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1883,8 +1883,8 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B17" s="25"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="7" t="s">
         <v>16</v>
       </c>
@@ -1945,8 +1945,8 @@
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B18" s="25"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="10" t="s">
         <v>17</v>
       </c>
@@ -2007,8 +2007,8 @@
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B19" s="25"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
@@ -2069,8 +2069,8 @@
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="7" t="s">
         <v>27</v>
       </c>
@@ -2099,8 +2099,8 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
@@ -2388,7 +2388,7 @@
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B25" s="19"/>
-      <c r="C25" s="28"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="7" t="s">
         <v>21</v>
       </c>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B26" s="19"/>
-      <c r="C26" s="28"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="7" t="s">
         <v>22</v>
       </c>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B27" s="19"/>
-      <c r="C27" s="28"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="7" t="s">
         <v>23</v>
       </c>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B28" s="19"/>
-      <c r="C28" s="28"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="7" t="s">
         <v>24</v>
       </c>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B29" s="19"/>
-      <c r="C29" s="28"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="7" t="s">
         <v>25</v>
       </c>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B30" s="19"/>
-      <c r="C30" s="28"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="7" t="s">
         <v>26</v>
       </c>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B31" s="19"/>
-      <c r="C31" s="28"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="7" t="s">
         <v>28</v>
       </c>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B32" s="19"/>
-      <c r="C32" s="28"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="7" t="s">
         <v>29</v>
       </c>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B33" s="19"/>
-      <c r="C33" s="28"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="7" t="s">
         <v>30</v>
       </c>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B34" s="20"/>
-      <c r="C34" s="29"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="6">
@@ -3026,7 +3026,7 @@
       <c r="B35" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -3090,7 +3090,7 @@
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B36" s="20"/>
-      <c r="C36" s="29"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="7"/>
       <c r="F36" s="6">
         <f t="shared" ref="F36:W36" si="5">AVERAGE(F35:F35)</f>
@@ -3687,7 +3687,7 @@
   <dimension ref="B2:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3699,7 +3699,8 @@
     <col min="5" max="5" width="26.3984375" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.59765625" style="8" customWidth="1"/>
     <col min="7" max="20" width="10.59765625" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -3780,11 +3781,11 @@
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="N3" s="6">
         <f t="shared" si="0"/>
@@ -3929,7 +3930,7 @@
     </row>
     <row r="7" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19"/>
-      <c r="C7" s="22"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
@@ -3982,7 +3983,7 @@
     </row>
     <row r="8" spans="2:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="19"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="7" t="s">
         <v>46</v>
       </c>
@@ -4035,7 +4036,7 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B9" s="19"/>
-      <c r="C9" s="22"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="7" t="s">
         <v>48</v>
       </c>
@@ -4088,7 +4089,7 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B10" s="19"/>
-      <c r="C10" s="22"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="9">
@@ -4139,7 +4140,7 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11" s="19"/>
-      <c r="C11" s="22"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="9">
@@ -4190,7 +4191,7 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B12" s="19"/>
-      <c r="C12" s="22"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="9"/>
@@ -4211,7 +4212,7 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B13" s="19"/>
-      <c r="C13" s="22"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="9"/>
@@ -4232,7 +4233,7 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B14" s="19"/>
-      <c r="C14" s="22"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="9"/>
@@ -4253,7 +4254,7 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B15" s="19"/>
-      <c r="C15" s="22"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="9">
@@ -4304,7 +4305,7 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B16" s="20"/>
-      <c r="C16" s="23"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="15"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6">
@@ -4369,10 +4370,10 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -4398,10 +4399,10 @@
         <v>0.4</v>
       </c>
       <c r="L17" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M17" s="9">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N17" s="9">
         <v>0</v>
@@ -4426,8 +4427,8 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B18" s="25"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="9">
@@ -4477,8 +4478,8 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B19" s="25"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="13"/>
       <c r="E19" s="7"/>
       <c r="F19" s="9">
@@ -4528,8 +4529,8 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="13"/>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
@@ -4579,8 +4580,8 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B21" s="25"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="13"/>
       <c r="E21" s="7"/>
       <c r="F21" s="9">
@@ -4630,8 +4631,8 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B22" s="25"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="13"/>
       <c r="E22" s="7"/>
       <c r="F22" s="9">
@@ -4681,8 +4682,8 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B23" s="25"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="13"/>
       <c r="E23" s="7"/>
       <c r="F23" s="9">
@@ -4732,8 +4733,8 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B24" s="26"/>
-      <c r="C24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="14"/>
       <c r="E24" s="7"/>
       <c r="F24" s="6">
@@ -4762,11 +4763,11 @@
       </c>
       <c r="L24" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M24" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.1666666666666674E-2</v>
       </c>
       <c r="N24" s="6">
         <f t="shared" si="2"/>
@@ -4855,8 +4856,8 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B26" s="25"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -4908,8 +4909,8 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B27" s="25"/>
-      <c r="C27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="7" t="s">
         <v>3</v>
       </c>
@@ -4961,8 +4962,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B28" s="25"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="7" t="s">
         <v>5</v>
       </c>
@@ -5015,7 +5016,7 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B29" s="19"/>
-      <c r="C29" s="28"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="7" t="s">
         <v>6</v>
       </c>
@@ -5068,7 +5069,7 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B30" s="20"/>
-      <c r="C30" s="29"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="17"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6">
@@ -5191,7 +5192,7 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B32" s="19"/>
-      <c r="C32" s="28"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="7" t="s">
         <v>14</v>
       </c>
@@ -5244,7 +5245,7 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B33" s="19"/>
-      <c r="C33" s="28"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="7" t="s">
         <v>15</v>
       </c>
@@ -5297,7 +5298,7 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B34" s="19"/>
-      <c r="C34" s="28"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="7" t="s">
         <v>16</v>
       </c>
@@ -5350,7 +5351,7 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B35" s="19"/>
-      <c r="C35" s="28"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="10" t="s">
         <v>17</v>
       </c>
@@ -5403,7 +5404,7 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B36" s="19"/>
-      <c r="C36" s="28"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="10" t="s">
         <v>18</v>
       </c>
@@ -5456,7 +5457,7 @@
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B37" s="19"/>
-      <c r="C37" s="28"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="7" t="s">
         <v>27</v>
       </c>
@@ -5509,7 +5510,7 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B38" s="19"/>
-      <c r="C38" s="28"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="7" t="s">
         <v>40</v>
       </c>
@@ -5562,7 +5563,7 @@
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B39" s="20"/>
-      <c r="C39" s="29"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="14"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6">

--- a/보고/보고양식(김홍준).xlsx
+++ b/보고/보고양식(김홍준).xlsx
@@ -1,40 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.165.50235"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdwn\OneDrive\바탕 화면\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0B176A-FBA9-4325-9208-7D6D138E2BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="퍼블리싱" sheetId="1" r:id="rId1"/>
     <sheet name="백앤드" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>페이지</t>
   </si>
@@ -201,73 +183,162 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -293,14 +364,187 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -315,7 +559,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -328,7 +571,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -339,7 +581,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -352,126 +593,392 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="10" builtinId="11"/>
+    <cellStyle name="계산" xfId="18" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="9" builtinId="10"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="6" builtinId="3"/>
     <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="21" builtinId="25"/>
+    <cellStyle name="입력" xfId="16" builtinId="20"/>
+    <cellStyle name="제목" xfId="11" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="12" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="13" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="14" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="15" builtinId="19"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
+    <cellStyle name="출력" xfId="17" builtinId="21"/>
+    <cellStyle name="통화" xfId="7" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
@@ -677,15 +1184,6 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -951,27 +1449,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:W43"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="8" customWidth="1"/>
-    <col min="7" max="22" width="10.59765625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="9" style="4" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="4"/>
+    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="13.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="24.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="22" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="23" max="23" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="24" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:23">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45157</v>
@@ -1028,89 +1526,89 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:23">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:W3" si="0">AVERAGE(F13,F21,F23,F34,F36)</f>
-        <v>6.2857142857142861E-2</v>
+        <f>AVERAGE(F13,F21,F23,F34,F36)</f>
+        <v>0.0628571428571429</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="0"/>
-        <v>9.5047619047619061E-2</v>
+        <f>AVERAGE(G13,G21,G23,G34,G36)</f>
+        <v>0.0950476190476191</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.1182857142857143</v>
+        <f>AVERAGE(H13,H21,H23,H34,H36)</f>
+        <v>0.118285714285714</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.17128571428571432</v>
+        <f>AVERAGE(I13,I21,I23,I34,I36)</f>
+        <v>0.171285714285714</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25900000000000001</v>
+        <f>AVERAGE(J13,J21,J23,J34,J36)</f>
+        <v>0.259</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.31485714285714284</v>
+        <f>AVERAGE(K13,K21,K23,K34,K36)</f>
+        <v>0.314857142857143</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.38657142857142851</v>
+        <f>AVERAGE(L13,L21,L23,L34,L36)</f>
+        <v>0.386571428571429</v>
       </c>
       <c r="M3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.44219047619047619</v>
+        <f>AVERAGE(M13,M21,M23,M34,M36)</f>
+        <v>0.442190476190476</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.51823809523809528</v>
+        <f>AVERAGE(N13,N21,N23,N34,N36)</f>
+        <v>0.518238095238095</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.62333333333333329</v>
+        <f>AVERAGE(O13,O21,O23,O34,O36)</f>
+        <v>0.623333333333333</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.6361904761904762</v>
+        <f>AVERAGE(P13,P21,P23,P34,P36)</f>
+        <v>0.636190476190476</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.77785714285714291</v>
+        <f>AVERAGE(Q13,Q21,Q23,Q34,Q36)</f>
+        <v>0.777857142857143</v>
       </c>
       <c r="R3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.82066666666666666</v>
+        <f>AVERAGE(R13,R21,R23,R34,R36)</f>
+        <v>0.820666666666667</v>
       </c>
       <c r="S3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.84342857142857142</v>
+        <f>AVERAGE(S13,S21,S23,S34,S36)</f>
+        <v>0.843428571428571</v>
       </c>
       <c r="T3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.87276190476190474</v>
+        <f>AVERAGE(T13,T21,T23,T34,T36)</f>
+        <v>0.872761904761905</v>
       </c>
       <c r="U3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.89771428571428569</v>
+        <f>AVERAGE(U13,U21,U23,U34,U36)</f>
+        <v>0.897714285714286</v>
       </c>
       <c r="V3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.89600000000000013</v>
+        <f>AVERAGE(V13,V21,V23,V34,V36)</f>
+        <v>0.896</v>
       </c>
       <c r="W3" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.4">
+        <f>AVERAGE(W13,W21,W23,W34,W36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23">
       <c r="H4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:23" ht="20.100000" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -1174,7 +1672,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:23" ht="16.500000" customHeight="1">
       <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
@@ -1240,9 +1738,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:23" ht="16.500000" customHeight="1">
       <c r="B7" s="19"/>
-      <c r="C7" s="25"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
         <v>34</v>
       </c>
@@ -1302,9 +1800,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:23" ht="16.200000" customHeight="1">
       <c r="B8" s="19"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="7" t="s">
         <v>38</v>
       </c>
@@ -1364,9 +1862,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:23">
       <c r="B9" s="19"/>
-      <c r="C9" s="25"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1426,9 +1924,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:23">
       <c r="B10" s="19"/>
-      <c r="C10" s="25"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1488,9 +1986,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:23">
       <c r="B11" s="19"/>
-      <c r="C11" s="26"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1550,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:23">
       <c r="B12" s="19"/>
       <c r="C12" s="11" t="s">
         <v>39</v>
@@ -1614,89 +2112,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:23">
       <c r="B13" s="20"/>
       <c r="C13" s="12"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6">
-        <f t="shared" ref="F13:W13" si="1">AVERAGE(F6:F12)</f>
-        <v>0.1142857142857143</v>
+        <f>AVERAGE(F6:F12)</f>
+        <v>0.114285714285714</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.12857142857142859</v>
+        <f>AVERAGE(G6:G12)</f>
+        <v>0.128571428571429</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.17142857142857143</v>
+        <f>AVERAGE(H6:H12)</f>
+        <v>0.171428571428571</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.37142857142857144</v>
+        <f>AVERAGE(I6:I12)</f>
+        <v>0.371428571428571</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(J6:J12)</f>
         <v>0.6</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.61428571428571421</v>
+        <f>AVERAGE(K6:K12)</f>
+        <v>0.614285714285714</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.6428571428571429</v>
+        <f>AVERAGE(L6:L12)</f>
+        <v>0.642857142857143</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.7142857142857143</v>
+        <f>AVERAGE(M6:M12)</f>
+        <v>0.714285714285714</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.74285714285714288</v>
+        <f>AVERAGE(N6:N12)</f>
+        <v>0.742857142857143</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.79999999999999993</v>
+        <f>AVERAGE(O6:O12)</f>
+        <v>0.8</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.86428571428571443</v>
+        <f>AVERAGE(P6:P12)</f>
+        <v>0.864285714285714</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.86428571428571443</v>
+        <f>AVERAGE(Q6:Q12)</f>
+        <v>0.864285714285714</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.90000000000000013</v>
+        <f>AVERAGE(R6:R12)</f>
+        <v>0.9</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.90714285714285725</v>
+        <f>AVERAGE(S6:S12)</f>
+        <v>0.907142857142857</v>
       </c>
       <c r="T13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.95714285714285718</v>
+        <f>AVERAGE(T6:T12)</f>
+        <v>0.957142857142857</v>
       </c>
       <c r="U13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.97857142857142854</v>
+        <f>AVERAGE(U6:U12)</f>
+        <v>0.978571428571429</v>
       </c>
       <c r="V13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.99285714285714288</v>
+        <f>AVERAGE(V6:V12)</f>
+        <v>0.992857142857143</v>
       </c>
       <c r="W13" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B14" s="27" t="s">
+        <f>AVERAGE(W6:W12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -1758,9 +2256,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B15" s="28"/>
-      <c r="C15" s="22"/>
+    <row r="15" spans="2:23">
+      <c r="B15" s="24"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1790,7 +2288,7 @@
         <v>0.45</v>
       </c>
       <c r="N15" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="O15" s="9">
         <v>0.6</v>
@@ -1820,9 +2318,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B16" s="28"/>
-      <c r="C16" s="22"/>
+    <row r="16" spans="2:23">
+      <c r="B16" s="24"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1882,9 +2380,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B17" s="28"/>
-      <c r="C17" s="22"/>
+    <row r="17" spans="2:23">
+      <c r="B17" s="24"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="7" t="s">
         <v>16</v>
       </c>
@@ -1944,9 +2442,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B18" s="28"/>
-      <c r="C18" s="22"/>
+    <row r="18" spans="2:23">
+      <c r="B18" s="24"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="10" t="s">
         <v>17</v>
       </c>
@@ -2006,9 +2504,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B19" s="28"/>
-      <c r="C19" s="22"/>
+    <row r="19" spans="2:23">
+      <c r="B19" s="24"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
@@ -2068,9 +2566,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B20" s="28"/>
-      <c r="C20" s="22"/>
+    <row r="20" spans="2:23">
+      <c r="B20" s="24"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="7" t="s">
         <v>27</v>
       </c>
@@ -2098,85 +2596,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B21" s="29"/>
-      <c r="C21" s="23"/>
+    <row r="21" spans="2:23">
+      <c r="B21" s="25"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
-        <f t="shared" ref="F21:U21" si="2">AVERAGE(F14:F19)</f>
-        <v>4.9999999999999996E-2</v>
+        <f>AVERAGE(F14:F19)</f>
+        <v>0.05</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="2"/>
-        <v>8.666666666666667E-2</v>
+        <f>AVERAGE(G14:G19)</f>
+        <v>0.0866666666666667</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <f>AVERAGE(H14:H19)</f>
+        <v>0.07</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="2"/>
-        <v>9.4999999999999987E-2</v>
+        <f>AVERAGE(I14:I19)</f>
+        <v>0.095</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(J14:J19)</f>
         <v>0.125</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(K14:K19)</f>
         <v>0.15</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.19999999999999998</v>
+        <f>AVERAGE(L14:L19)</f>
+        <v>0.2</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.21666666666666667</v>
+        <f>AVERAGE(M14:M19)</f>
+        <v>0.216666666666667</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.37833333333333335</v>
+        <f>AVERAGE(N14:N19)</f>
+        <v>0.378333333333333</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.44166666666666665</v>
+        <f>AVERAGE(O14:O19)</f>
+        <v>0.441666666666667</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.44166666666666665</v>
+        <f>AVERAGE(P14:P19)</f>
+        <v>0.441666666666667</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.54999999999999993</v>
+        <f>AVERAGE(Q14:Q19)</f>
+        <v>0.55</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.71333333333333337</v>
+        <f>AVERAGE(R14:R19)</f>
+        <v>0.713333333333333</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.80000000000000016</v>
+        <f>AVERAGE(S14:S19)</f>
+        <v>0.8</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.89666666666666661</v>
+        <f>AVERAGE(T14:T19)</f>
+        <v>0.896666666666667</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(U14:U19)</f>
         <v>0.96</v>
       </c>
       <c r="V21" s="6">
         <f>AVERAGE(V14:V20)</f>
-        <v>0.8571428571428571</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="W21" s="6">
         <f>AVERAGE(W14:W20)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:23">
       <c r="B22" s="18" t="s">
         <v>8</v>
       </c>
@@ -2242,85 +2740,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:23">
       <c r="B23" s="20"/>
       <c r="C23" s="17"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6">
-        <f t="shared" ref="F23:W23" si="3">AVERAGE(F22:F22)</f>
+        <f>AVERAGE(F22:F22)</f>
         <v>0.1</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(G22:G22)</f>
         <v>0.2</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H22:H22)</f>
         <v>0.25</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(I22:I22)</f>
         <v>0.3</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J22:J22)</f>
         <v>0.4</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(K22:K22)</f>
         <v>0.5</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(L22:L22)</f>
         <v>0.7</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(M22:M22)</f>
         <v>0.8</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(N22:N22)</f>
         <v>0.9</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(O22:O22)</f>
         <v>1</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(P22:P22)</f>
         <v>1</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(Q22:Q22)</f>
         <v>1</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(R22:R22)</f>
         <v>1</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(S22:S22)</f>
         <v>1</v>
       </c>
       <c r="T23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(T22:T22)</f>
         <v>1</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(U22:U22)</f>
         <v>1</v>
       </c>
       <c r="V23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(V22:V22)</f>
         <v>1</v>
       </c>
       <c r="W23" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.4">
+        <f>AVERAGE(W22:W22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
       <c r="B24" s="18" t="s">
         <v>9</v>
       </c>
@@ -2386,9 +2884,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:23">
       <c r="B25" s="19"/>
-      <c r="C25" s="22"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="7" t="s">
         <v>21</v>
       </c>
@@ -2448,9 +2946,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:23">
       <c r="B26" s="19"/>
-      <c r="C26" s="22"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="7" t="s">
         <v>22</v>
       </c>
@@ -2510,9 +3008,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:23">
       <c r="B27" s="19"/>
-      <c r="C27" s="22"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="7" t="s">
         <v>23</v>
       </c>
@@ -2572,9 +3070,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:23">
       <c r="B28" s="19"/>
-      <c r="C28" s="22"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="7" t="s">
         <v>24</v>
       </c>
@@ -2634,9 +3132,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:23">
       <c r="B29" s="19"/>
-      <c r="C29" s="22"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="7" t="s">
         <v>25</v>
       </c>
@@ -2696,9 +3194,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:23">
       <c r="B30" s="19"/>
-      <c r="C30" s="22"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="7" t="s">
         <v>26</v>
       </c>
@@ -2758,9 +3256,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:23">
       <c r="B31" s="19"/>
-      <c r="C31" s="22"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="7" t="s">
         <v>28</v>
       </c>
@@ -2820,9 +3318,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:23">
       <c r="B32" s="19"/>
-      <c r="C32" s="22"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="7" t="s">
         <v>29</v>
       </c>
@@ -2882,9 +3380,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:23">
       <c r="B33" s="19"/>
-      <c r="C33" s="22"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="7" t="s">
         <v>30</v>
       </c>
@@ -2944,89 +3442,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:23">
       <c r="B34" s="20"/>
-      <c r="C34" s="23"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="6">
-        <f t="shared" ref="F34:W34" si="4">AVERAGE(F24:F33)</f>
+        <f>AVERAGE(F24:F33)</f>
         <v>0</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(G24:G33)</f>
         <v>0.01</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(H24:H33)</f>
         <v>0.05</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(I24:I33)</f>
         <v>0.04</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J24:J33)</f>
         <v>0.09</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(K24:K33)</f>
         <v>0.13</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="4"/>
-        <v>0.21000000000000002</v>
+        <f>AVERAGE(L24:L33)</f>
+        <v>0.21</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(M24:M33)</f>
         <v>0.3</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(N24:N33)</f>
         <v>0.39</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="4"/>
-        <v>0.47499999999999998</v>
+        <f>AVERAGE(O24:O33)</f>
+        <v>0.475</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="4"/>
-        <v>0.47499999999999998</v>
+        <f>AVERAGE(P24:P33)</f>
+        <v>0.475</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="4"/>
-        <v>0.47499999999999998</v>
+        <f>AVERAGE(Q24:Q33)</f>
+        <v>0.475</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="4"/>
-        <v>0.49000000000000005</v>
+        <f>AVERAGE(R24:R33)</f>
+        <v>0.49</v>
       </c>
       <c r="S34" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(S24:S33)</f>
         <v>0.51</v>
       </c>
       <c r="T34" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(T24:T33)</f>
         <v>0.51</v>
       </c>
       <c r="U34" s="6">
-        <f t="shared" si="4"/>
-        <v>0.55000000000000004</v>
+        <f>AVERAGE(U24:U33)</f>
+        <v>0.55</v>
       </c>
       <c r="V34" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(V24:V33)</f>
         <v>0.63</v>
       </c>
       <c r="W34" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.4">
+        <f>AVERAGE(W24:W33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23">
       <c r="B35" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -3088,122 +3586,122 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:23">
       <c r="B36" s="20"/>
-      <c r="C36" s="23"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="7"/>
       <c r="F36" s="6">
-        <f t="shared" ref="F36:W36" si="5">AVERAGE(F35:F35)</f>
+        <f>AVERAGE(F35:F35)</f>
         <v>0.05</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(G35:G35)</f>
         <v>0.05</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(H35:H35)</f>
         <v>0.05</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(I35:I35)</f>
         <v>0.05</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(J35:J35)</f>
         <v>0.08</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(K35:K35)</f>
         <v>0.18</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(L35:L35)</f>
         <v>0.18</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(M35:M35)</f>
         <v>0.18</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(N35:N35)</f>
         <v>0.18</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(O35:O35)</f>
         <v>0.4</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(P35:P35)</f>
         <v>0.4</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(Q35:Q35)</f>
         <v>1</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(R35:R35)</f>
         <v>1</v>
       </c>
       <c r="S36" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(S35:S35)</f>
         <v>1</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(T35:T35)</f>
         <v>1</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(U35:U35)</f>
         <v>1</v>
       </c>
       <c r="V36" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(V35:V35)</f>
         <v>1</v>
       </c>
       <c r="W36" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.4">
+        <f>AVERAGE(W35:W35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23">
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:23">
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:23">
       <c r="E39" s="8"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:23">
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:23">
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:23">
       <c r="E42" s="8"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:23">
       <c r="E43" s="8"/>
       <c r="F43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B24:B34"/>
-    <mergeCell ref="C24:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="C14:C21"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="C24:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B9:B10 E9:E10">
@@ -3255,7 +3753,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{11514148-6455-6677-1151-414864556677}</x14:id>
+          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3269,7 +3767,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
+          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3283,7 +3781,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}</x14:id>
+          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3297,7 +3795,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}</x14:id>
+          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3311,7 +3809,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B5F5A5EC-C5F3-C2D3-B5F5-A5ECC5F3C2D3}</x14:id>
+          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3325,7 +3823,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31712168-4477-4657-3171-216844774657}</x14:id>
+          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3339,7 +3837,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6727773E-1231-1DC1-6727-773E12311DC1}</x14:id>
+          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3353,7 +3851,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79491956-7C4C-7E6F-7949-19567C4C7E6F}</x14:id>
+          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3367,7 +3865,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{95D585CC-E3D1-E2F3-95D5-85CCE3D1E2F3}</x14:id>
+          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3381,7 +3879,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D393C38A-A686-A4B5-D393-C38AA686A4B5}</x14:id>
+          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3395,7 +3893,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DD9DCD84-A899-AABB-DD9D-CD84A899AABB}</x14:id>
+          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3409,7 +3907,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}</x14:id>
+          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3423,7 +3921,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1959D947-6C5D-6E7F-1959-D9476C5D6E7F}</x14:id>
+          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3437,7 +3935,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E1411158-7444-7667-E141-115874447667}</x14:id>
+          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3451,7 +3949,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}</x14:id>
+          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3465,7 +3963,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}</x14:id>
+          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3479,202 +3977,185 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8DCD9DD4-F8C8-FAEB-8DCD-9DD4F8C8FAEB}</x14:id>
+          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{11514148-6455-6677-1151-414864556677}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5717478E-22D2-2A31-5717-478E22D22A31}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F24:F33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F6:G7 Q6:S12 V6:W12 F8:P8 T8:U8 F9:P9 R9 T9:U9 F10:P10 R10 T10:U10 F11:P11 R11 T11:U11 F12:P12 R12 T12:U12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F35:I35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B5F5A5EC-C5F3-C2D3-B5F5-A5ECC5F3C2D3}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F14:Q15 R14:V16 W14:W20 F16:G19 R17:V19 V20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F14:Q15 R14:W19 W20 V20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6727773E-1231-1DC1-6727-773E12311DC1}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F35:V35 W35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{79491956-7C4C-7E6F-7949-19567C4C7E6F}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G9:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{95D585CC-E3D1-E2F3-95D5-85CCE3D1E2F3}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G25:G33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DD9DCD84-A899-AABB-DD9D-CD84A899AABB}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G14:Q15 H14:P14 Q14:V16 S14:V14 W14:W20 H15:P15 S15:V15 H16:P16 S16:V16 H17:P17 Q17:V19 S17:V17 H18:P18 S18:V18 H19:P19 S19:V19 V20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G24:Q24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1959D947-6C5D-6E7F-1959-D9476C5D6E7F}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E1411158-7444-7667-E141-115874447667}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{4262521b-3716-3524-4262-521b37163524}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:P6 Q6:S12 T6:U6 V6:W12 H7:P7 R7 T7:U7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H24:P24 Q24:Q30 R24:S24 T24:V27 U24:V24 H25:P25 R25:S25 U25:V25 H26:P26 R26:S26 U26:V26 H27:P27 R27:S27 U27:V27 H28:P28 R28:V28 H29:P29 R29:V29 H30:P30 R30:V30 H31:V33 W24:W33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I22:V22 W22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8DCD9DD4-F8C8-FAEB-8DCD-9DD4F8C8FAEB}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q6:S12 V6:W12 H9:P9 T9:U9 H10:P10 R10 T10:U10 H11:P11 R11 T11:U11 H12:P12 R12 T12:U12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3683,27 +4164,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:T46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A7" tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="8" customWidth="1"/>
-    <col min="7" max="20" width="10.59765625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="4"/>
+    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="13.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="20.12999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="20" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="21" max="21" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="22" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45196</v>
@@ -3751,72 +4232,72 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:T3" si="0">AVERAGE(F16,F24,F30,F39)</f>
-        <v>2.0833333333333333E-3</v>
+        <f>AVERAGE(F16,F24,F30,F39)</f>
+        <v>0.00208333333333333</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666666E-3</v>
+        <f>AVERAGE(G16,G24,G30,G39)</f>
+        <v>0.00416666666666667</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
-        <v>6.2499999999999995E-3</v>
+        <f>AVERAGE(H16,H24,H30,H39)</f>
+        <v>0.00625</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333332E-3</v>
+        <f>AVERAGE(I16,I24,I30,I39)</f>
+        <v>0.00833333333333333</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" si="0"/>
-        <v>1.2499999999999999E-2</v>
+        <f>AVERAGE(J16,J24,J30,J39)</f>
+        <v>0.0125</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666666E-2</v>
+        <f>AVERAGE(K16,K24,K30,K39)</f>
+        <v>0.0166666666666667</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <f>AVERAGE(L16,L24,L30,L39)</f>
+        <v>0.0208333333333333</v>
       </c>
       <c r="M3" s="6">
-        <f t="shared" si="0"/>
-        <v>2.2916666666666669E-2</v>
+        <f>AVERAGE(M16,M24,M30,M39)</f>
+        <v>0.0229166666666667</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(N16,N24,N30,N39)</f>
+        <v>0.025</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(O16,O24,O30,O39)</f>
+        <v>0.0270833333333333</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(P16,P24,P30,P39)</f>
+        <v>0.025</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(Q16,Q24,Q30,Q39)</f>
+        <v>0.025</v>
       </c>
       <c r="R3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(R16,R24,R30,R39)</f>
+        <v>0.0291666666666667</v>
       </c>
       <c r="S3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(S16,S24,S30,S39)</f>
+        <v>0.0333333333333333</v>
       </c>
       <c r="T3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+        <f>AVERAGE(T16,T24,T30,T39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="20.100000" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -3871,7 +4352,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" ht="16.500000" customHeight="1">
       <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
@@ -3928,9 +4409,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20" ht="16.500000" customHeight="1">
       <c r="B7" s="19"/>
-      <c r="C7" s="25"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
@@ -3981,9 +4462,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:20" ht="16.200000" customHeight="1">
       <c r="B8" s="19"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="7" t="s">
         <v>46</v>
       </c>
@@ -4034,9 +4515,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20">
       <c r="B9" s="19"/>
-      <c r="C9" s="25"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
         <v>48</v>
       </c>
@@ -4087,9 +4568,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20">
       <c r="B10" s="19"/>
-      <c r="C10" s="25"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="9">
@@ -4138,9 +4619,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20">
       <c r="B11" s="19"/>
-      <c r="C11" s="25"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="9">
@@ -4189,9 +4670,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20">
       <c r="B12" s="19"/>
-      <c r="C12" s="25"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="9"/>
@@ -4210,9 +4691,9 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20">
       <c r="B13" s="19"/>
-      <c r="C13" s="25"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="9"/>
@@ -4231,9 +4712,9 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20">
       <c r="B14" s="19"/>
-      <c r="C14" s="25"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="9"/>
@@ -4252,9 +4733,9 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20">
       <c r="B15" s="19"/>
-      <c r="C15" s="25"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="9">
@@ -4303,77 +4784,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20">
       <c r="B16" s="20"/>
-      <c r="C16" s="26"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6">
-        <f t="shared" ref="F16:T16" si="1">AVERAGE(F6:F15)</f>
+        <f>AVERAGE(F6:F15)</f>
         <v>0</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G6:G15)</f>
         <v>0</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H6:H15)</f>
         <v>0</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(I6:I15)</f>
         <v>0</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(J6:J15)</f>
         <v>0</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(K6:K15)</f>
         <v>0</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(L6:L15)</f>
         <v>0</v>
       </c>
       <c r="M16" s="6">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(M6:M15)</f>
         <v>0</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(N6:N15)</f>
         <v>0</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(O6:O15)</f>
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(P6:P15)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="6">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(Q6:Q15)</f>
         <v>0</v>
       </c>
       <c r="R16" s="6">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(R6:R15)</f>
         <v>0</v>
       </c>
       <c r="S16" s="6">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(S6:S15)</f>
         <v>0</v>
       </c>
       <c r="T16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B17" s="27" t="s">
+        <f>AVERAGE(T6:T15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="22" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -4402,33 +4883,33 @@
         <v>0.5</v>
       </c>
       <c r="M17" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="N17" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O17" s="9">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="P17" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q17" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R17" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="S17" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T17" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B18" s="28"/>
-      <c r="C18" s="22"/>
+    <row r="18" spans="2:20">
+      <c r="B18" s="24"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="9">
@@ -4477,9 +4958,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B19" s="28"/>
-      <c r="C19" s="22"/>
+    <row r="19" spans="2:20">
+      <c r="B19" s="24"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="7"/>
       <c r="F19" s="9">
@@ -4528,9 +5009,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B20" s="28"/>
-      <c r="C20" s="22"/>
+    <row r="20" spans="2:20">
+      <c r="B20" s="24"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
@@ -4579,9 +5060,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
+    <row r="21" spans="2:20">
+      <c r="B21" s="24"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="7"/>
       <c r="F21" s="9">
@@ -4630,9 +5111,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B22" s="28"/>
-      <c r="C22" s="22"/>
+    <row r="22" spans="2:20">
+      <c r="B22" s="24"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="7"/>
       <c r="F22" s="9">
@@ -4681,9 +5162,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B23" s="28"/>
-      <c r="C23" s="22"/>
+    <row r="23" spans="2:20">
+      <c r="B23" s="24"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="7"/>
       <c r="F23" s="9">
@@ -4732,73 +5213,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B24" s="29"/>
-      <c r="C24" s="23"/>
+    <row r="24" spans="2:20">
+      <c r="B24" s="25"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="7"/>
       <c r="F24" s="6">
-        <f t="shared" ref="F24:T24" si="2">AVERAGE(F17:F22)</f>
-        <v>8.3333333333333332E-3</v>
+        <f>AVERAGE(F17:F22)</f>
+        <v>0.00833333333333333</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="2"/>
-        <v>1.6666666666666666E-2</v>
+        <f>AVERAGE(G17:G22)</f>
+        <v>0.0166666666666667</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="2"/>
-        <v>2.4999999999999998E-2</v>
+        <f>AVERAGE(H17:H22)</f>
+        <v>0.025</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="2"/>
-        <v>3.3333333333333333E-2</v>
+        <f>AVERAGE(I17:I22)</f>
+        <v>0.0333333333333333</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="2"/>
-        <v>4.9999999999999996E-2</v>
+        <f>AVERAGE(J17:J22)</f>
+        <v>0.05</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <f>AVERAGE(K17:K22)</f>
+        <v>0.0666666666666667</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
+        <f>AVERAGE(L17:L22)</f>
+        <v>0.0833333333333333</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="2"/>
-        <v>9.1666666666666674E-2</v>
+        <f>AVERAGE(M17:M22)</f>
+        <v>0.0916666666666667</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>AVERAGE(N17:N22)</f>
+        <v>0.1</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>AVERAGE(O17:O22)</f>
+        <v>0.108333333333333</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>AVERAGE(P17:P22)</f>
+        <v>0.1</v>
       </c>
       <c r="Q24" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>AVERAGE(Q17:Q22)</f>
+        <v>0.1</v>
       </c>
       <c r="R24" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>AVERAGE(R17:R22)</f>
+        <v>0.116666666666667</v>
       </c>
       <c r="S24" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>AVERAGE(S17:S22)</f>
+        <v>0.133333333333333</v>
       </c>
       <c r="T24" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
+        <f>AVERAGE(T17:T22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
       <c r="B25" s="18" t="s">
         <v>41</v>
       </c>
@@ -4855,9 +5336,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B26" s="28"/>
-      <c r="C26" s="22"/>
+    <row r="26" spans="2:20">
+      <c r="B26" s="24"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -4908,9 +5389,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B27" s="28"/>
-      <c r="C27" s="22"/>
+    <row r="27" spans="2:20">
+      <c r="B27" s="24"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="7" t="s">
         <v>3</v>
       </c>
@@ -4961,9 +5442,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B28" s="28"/>
-      <c r="C28" s="22"/>
+    <row r="28" spans="2:20">
+      <c r="B28" s="24"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="7" t="s">
         <v>5</v>
       </c>
@@ -5014,9 +5495,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:20">
       <c r="B29" s="19"/>
-      <c r="C29" s="22"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="7" t="s">
         <v>6</v>
       </c>
@@ -5067,73 +5548,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:20">
       <c r="B30" s="20"/>
-      <c r="C30" s="23"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="17"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6">
-        <f t="shared" ref="F30:T30" si="3">AVERAGE(F29:F29)</f>
+        <f>AVERAGE(F29:F29)</f>
         <v>0</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(G29:G29)</f>
         <v>0</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H29:H29)</f>
         <v>0</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(I29:I29)</f>
         <v>0</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J29:J29)</f>
         <v>0</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(K29:K29)</f>
         <v>0</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(L29:L29)</f>
         <v>0</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(M29:M29)</f>
         <v>0</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(N29:N29)</f>
         <v>0</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(O29:O29)</f>
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(P29:P29)</f>
         <v>0</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(Q29:Q29)</f>
         <v>0</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(R29:R29)</f>
         <v>0</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(S29:S29)</f>
         <v>0</v>
       </c>
       <c r="T30" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
+        <f>AVERAGE(T29:T29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
       <c r="B31" s="18" t="s">
         <v>9</v>
       </c>
@@ -5190,9 +5671,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:20">
       <c r="B32" s="19"/>
-      <c r="C32" s="22"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="7" t="s">
         <v>14</v>
       </c>
@@ -5243,9 +5724,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:20">
       <c r="B33" s="19"/>
-      <c r="C33" s="22"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="7" t="s">
         <v>15</v>
       </c>
@@ -5296,9 +5777,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:20">
       <c r="B34" s="19"/>
-      <c r="C34" s="22"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="7" t="s">
         <v>16</v>
       </c>
@@ -5349,9 +5830,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:20">
       <c r="B35" s="19"/>
-      <c r="C35" s="22"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="10" t="s">
         <v>17</v>
       </c>
@@ -5402,9 +5883,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:20">
       <c r="B36" s="19"/>
-      <c r="C36" s="22"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="10" t="s">
         <v>18</v>
       </c>
@@ -5455,9 +5936,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:20">
       <c r="B37" s="19"/>
-      <c r="C37" s="22"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="7" t="s">
         <v>27</v>
       </c>
@@ -5508,9 +5989,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:20">
       <c r="B38" s="19"/>
-      <c r="C38" s="22"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="7" t="s">
         <v>40</v>
       </c>
@@ -5561,122 +6042,122 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:20">
       <c r="B39" s="20"/>
-      <c r="C39" s="23"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6">
-        <f t="shared" ref="F39:T39" si="4">AVERAGE(F31:F38)</f>
+        <f>AVERAGE(F31:F38)</f>
         <v>0</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(G31:G38)</f>
         <v>0</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(H31:H38)</f>
         <v>0</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(I31:I38)</f>
         <v>0</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J31:J38)</f>
         <v>0</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(K31:K38)</f>
         <v>0</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(L31:L38)</f>
         <v>0</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(M31:M38)</f>
         <v>0</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(N31:N38)</f>
         <v>0</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(O31:O38)</f>
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(P31:P38)</f>
         <v>0</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(Q31:Q38)</f>
         <v>0</v>
       </c>
       <c r="R39" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(R31:R38)</f>
         <v>0</v>
       </c>
       <c r="S39" s="6">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(S31:S38)</f>
         <v>0</v>
       </c>
       <c r="T39" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.4">
+        <f>AVERAGE(T31:T38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20">
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:20">
       <c r="D41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:20">
       <c r="D42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:20">
       <c r="D43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:20">
       <c r="D44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:20">
       <c r="E45" s="8"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:20">
       <c r="E46" s="8"/>
       <c r="F46" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C31:C39"/>
     <mergeCell ref="B6:B16"/>
     <mergeCell ref="C6:C16"/>
     <mergeCell ref="B17:B24"/>
     <mergeCell ref="C17:C24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C31:C39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B9:B10 E9:E10">
@@ -5689,7 +6170,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:E22 B17:C17 E17">
+  <conditionalFormatting sqref="B17:C17 E17 B18:E22">
     <cfRule type="cellIs" dxfId="9" priority="271" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -5748,7 +6229,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}</x14:id>
+          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5762,7 +6243,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
+          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5776,7 +6257,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{11514148-6455-6677-1151-414864556677}</x14:id>
+          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5790,7 +6271,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}</x14:id>
+          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5804,7 +6285,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}</x14:id>
+          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5816,7 +6297,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}</x14:id>
+          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5830,7 +6311,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}</x14:id>
+          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5844,7 +6325,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2F6F3F76-5A79-5849-2F6F-3F765A795849}</x14:id>
+          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5858,7 +6339,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{95D585CC-E3D1-E2F3-95D5-85CCE3D1E2F3}</x14:id>
+          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5872,7 +6353,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}</x14:id>
+          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5886,7 +6367,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C383D39A-B697-B4A5-C383-D39AB697B4A5}</x14:id>
+          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5900,7 +6381,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D393C38A-A686-A4B5-D393-C38AA686A4B5}</x14:id>
+          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5914,7 +6395,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4727571E-3213-3B21-4727-571E32133B21}</x14:id>
+          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5928,166 +6409,155 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6727773E-1231-1DC1-6727-773E12311DC1}</x14:id>
+          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F31:F38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5717478E-22D2-2A31-5717-478E22D22A31}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F6:G7 Q6:S12 F8:P8 T8 F9:P9 T9 F10:P10 T10 F11:P11 T11 Q13:S14 F15:R15 T15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{11514148-6455-6677-1151-414864556677}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F17:Q18 R17:T19 F19:G22 R20:T22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F17:Q18 R17:T22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}">
-            <x14:dataBar minLength="0" maxLength="100">
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F25:T29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G9:G15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2F6F3F76-5A79-5849-2F6F-3F765A795849}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G32:G38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{95D585CC-E3D1-E2F3-95D5-85CCE3D1E2F3}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G17:Q18 H17:P17 Q17:T19 S17:T17 H18:P18 S18:T18 H19:P19 S19:T19 H20:P20 Q20:T22 S20:T20 H21:P21 S21:T21 H22:P22 S22:T22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G31:Q31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C383D39A-B697-B4A5-C383-D39AB697B4A5}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G25:T29 I29:T29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:P6 Q6:S12 T6 H7:P7 T7 Q13:S15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4727571E-3213-3B21-4727-571E32133B21}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H31:P31 Q31:Q37 R31:S31 T31:T34 H32:P32 R32:S32 H33:P33 R33:S33 H34:P34 R34:S34 H35:P35 R35:T35 H36:P36 R36:T36 H37:P37 R37:T37 H38:T38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6727773E-1231-1DC1-6727-773E12311DC1}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{4262521b-3716-3524-4262-521b37163524}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q6:S12 H9:P9 T9 H10:P10 T10 H11:P11 T11 Q13:S14 H15:R15 T15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
